--- a/names.xlsx
+++ b/names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasgari/Desktop/ProgrammabilityProjects/codecAutomation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9552CF6D-41C1-174F-80C7-454EA24161D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C532160-5E0B-5048-AD38-77FABD1C2CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41380" yWindow="2300" windowWidth="27240" windowHeight="16440" xr2:uid="{5EAC0ABB-5943-2944-9B0D-0EBD64C4EE62}"/>
+    <workbookView xWindow="41440" yWindow="1900" windowWidth="27240" windowHeight="16440" xr2:uid="{5EAC0ABB-5943-2944-9B0D-0EBD64C4EE62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>PMR</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>luis@cisco.com</t>
+  </si>
+  <si>
+    <t>Blake Long</t>
+  </si>
+  <si>
+    <t>blake@cisco.com</t>
+  </si>
+  <si>
+    <t>Yashar</t>
+  </si>
+  <si>
+    <t>yasgari@cisco.com</t>
+  </si>
+  <si>
+    <t>Luis</t>
   </si>
 </sst>
 </file>
@@ -403,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D5327-FF85-1B4F-925E-70AF9C9CC887}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="B4" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,18 +442,41 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{75D743BB-B0DA-5A47-89AF-6E6E8A945B87}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{02D9D5A8-9D12-B444-9D7E-F1B17BED369E}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{232A79A7-1D49-7C44-B824-8EDE013A3396}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>